--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrianna\Desktop\ACIIDS 2022\semantyki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55ACB11-8AF9-4001-85CF-E3D0928B0D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CE020A-33F3-4289-9F9E-E1B546EF8F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sofsem" sheetId="1" r:id="rId1"/>
@@ -1304,7 +1304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2187,8 +2187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2207,7 +2207,7 @@
     <col min="13" max="13" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>102</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="12" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
         <v>103</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="16" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
         <v>108</v>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -3715,7 +3715,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>185</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>160</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>178</v>
       </c>
